--- a/Documents/宠物技能汇总v2.1.xlsx
+++ b/Documents/宠物技能汇总v2.1.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">基础属性!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">强化属性!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="463">
   <si>
     <t>图形名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -476,10 +476,6 @@
   </si>
   <si>
     <t>身旁出现一个水元素分身</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼烧</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1816,10 +1812,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fire_burn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fire_smoke</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1852,6 +1844,25 @@
   </si>
   <si>
     <t>fire_blade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_burn</t>
+  </si>
+  <si>
+    <t>狼焰斩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant_grow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant_huge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant_root</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1862,7 +1873,7 @@
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2001,16 +2012,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2097,7 +2098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2288,9 +2289,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10520,22 +10518,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="58" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -10543,18 +10541,18 @@
     </row>
     <row r="6" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A6" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B6" s="58"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A10" s="59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B10" s="58"/>
     </row>
@@ -10563,45 +10561,45 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B12" s="58"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="59" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B13" s="58"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B14" s="58"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="59" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -10622,7 +10620,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -10642,52 +10640,52 @@
   <sheetData>
     <row r="1" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="56" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="53"/>
       <c r="E2" s="53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>7</v>
@@ -10702,23 +10700,23 @@
     </row>
     <row r="3" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>12</v>
@@ -10730,20 +10728,20 @@
     </row>
     <row r="4" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="53"/>
       <c r="E4" s="53" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>400</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>401</v>
       </c>
       <c r="G4" s="53" t="s">
         <v>40</v>
@@ -10758,20 +10756,20 @@
     </row>
     <row r="5" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>17</v>
@@ -10786,23 +10784,23 @@
     </row>
     <row r="6" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>22</v>
@@ -10814,20 +10812,20 @@
     </row>
     <row r="7" spans="1:10" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G7" s="53" t="s">
         <v>24</v>
@@ -10842,20 +10840,20 @@
     </row>
     <row r="8" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>28</v>
@@ -10870,20 +10868,20 @@
     </row>
     <row r="9" spans="1:10" s="28" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>41</v>
@@ -10898,23 +10896,23 @@
     </row>
     <row r="10" spans="1:10" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>35</v>
@@ -10926,20 +10924,20 @@
     </row>
     <row r="11" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>37</v>
@@ -10954,20 +10952,22 @@
     </row>
     <row r="12" spans="1:10" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>460</v>
+      </c>
       <c r="E12" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>42</v>
@@ -10982,23 +10982,23 @@
     </row>
     <row r="13" spans="1:10" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>47</v>
@@ -11010,20 +11010,20 @@
     </row>
     <row r="14" spans="1:10" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>49</v>
@@ -11038,20 +11038,22 @@
     </row>
     <row r="15" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="E15" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>53</v>
@@ -11066,20 +11068,20 @@
     </row>
     <row r="16" spans="1:10" s="29" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>57</v>
@@ -11094,20 +11096,20 @@
     </row>
     <row r="17" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>64</v>
@@ -11122,20 +11124,22 @@
     </row>
     <row r="18" spans="1:10" s="29" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A18" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>462</v>
+      </c>
       <c r="E18" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>68</v>
@@ -11150,20 +11154,20 @@
     </row>
     <row r="19" spans="1:10" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>72</v>
@@ -11178,20 +11182,20 @@
     </row>
     <row r="20" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>76</v>
@@ -11206,20 +11210,20 @@
     </row>
     <row r="21" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>78</v>
@@ -11234,20 +11238,20 @@
     </row>
     <row r="22" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>81</v>
@@ -11262,20 +11266,20 @@
     </row>
     <row r="23" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>84</v>
@@ -11290,20 +11294,20 @@
     </row>
     <row r="24" spans="1:10" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>88</v>
@@ -11318,20 +11322,20 @@
     </row>
     <row r="25" spans="1:10" s="30" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>92</v>
@@ -11346,23 +11350,23 @@
     </row>
     <row r="26" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>12</v>
@@ -11374,23 +11378,23 @@
     </row>
     <row r="27" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>98</v>
@@ -11402,20 +11406,20 @@
     </row>
     <row r="28" spans="1:10" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A28" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>99</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>100</v>
@@ -11430,20 +11434,20 @@
     </row>
     <row r="29" spans="1:10" s="30" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A29" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>104</v>
@@ -11458,20 +11462,20 @@
     </row>
     <row r="30" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>107</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>108</v>
@@ -11486,20 +11490,20 @@
     </row>
     <row r="31" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>110</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>111</v>
@@ -11514,582 +11518,582 @@
     </row>
     <row r="32" spans="1:10" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A32" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C32" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="G32" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>114</v>
-      </c>
       <c r="H32" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="50"/>
       <c r="J32" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C33" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="G33" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>118</v>
-      </c>
       <c r="H33" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I33" s="50"/>
       <c r="J33" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A34" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C34" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="G34" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>122</v>
-      </c>
       <c r="H34" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I34" s="50"/>
       <c r="J34" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A35" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C35" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="G35" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>126</v>
-      </c>
       <c r="H35" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I35" s="50"/>
       <c r="J35" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C36" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="G36" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>130</v>
-      </c>
       <c r="H36" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I36" s="50"/>
       <c r="J36" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C37" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="G37" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="G37" s="33" t="s">
-        <v>134</v>
-      </c>
       <c r="H37" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I37" s="50"/>
       <c r="J37" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="34" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A38" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C38" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G38" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>456</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>138</v>
-      </c>
       <c r="H38" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I38" s="50"/>
       <c r="J38" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="34" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A39" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C39" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="G39" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="75" t="s">
-        <v>459</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>142</v>
-      </c>
       <c r="H39" s="37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I39" s="50"/>
       <c r="J39" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C40" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="G40" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="E40" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>145</v>
-      </c>
       <c r="H40" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I40" s="50"/>
       <c r="J40" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A41" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C41" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="G41" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="36" t="s">
-        <v>458</v>
-      </c>
-      <c r="E41" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>149</v>
-      </c>
       <c r="H41" s="37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I41" s="50"/>
       <c r="J41" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D42" s="39"/>
       <c r="E42" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I42" s="51"/>
       <c r="J42" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D43" s="39"/>
       <c r="E43" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I43" s="51"/>
       <c r="J43" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="41" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A44" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44" s="39"/>
       <c r="E44" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G44" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I44" s="51"/>
       <c r="J44" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="41" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A45" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D45" s="39"/>
       <c r="E45" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I45" s="51"/>
       <c r="J45" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="41" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A46" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I46" s="51"/>
       <c r="J46" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D47" s="39"/>
       <c r="E47" s="39" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I47" s="51"/>
       <c r="J47" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D48" s="44"/>
       <c r="E48" s="44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G48" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I48" s="51"/>
       <c r="J48" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="41" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" s="44"/>
       <c r="E49" s="44" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G49" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I49" s="51"/>
       <c r="J49" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D50" s="44"/>
       <c r="E50" s="44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G50" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H50" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I50" s="51"/>
       <c r="J50" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D51" s="44"/>
       <c r="E51" s="44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G51" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I51" s="51"/>
       <c r="J51" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -12151,1100 +12155,1100 @@
     </row>
     <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A2" s="66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B2" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="66" t="s">
+      <c r="E2" s="66" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="F2" s="66" t="s">
         <v>186</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>187</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B3" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="D3" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="E3" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="66" t="s">
         <v>190</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>191</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A4" s="66" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B4" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="D4" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="E4" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="F4" s="66" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>196</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B5" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="D5" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="E5" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>199</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="66" t="s">
-        <v>200</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="D6" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="E6" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="66" t="s">
         <v>203</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>204</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="66" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B7" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="D7" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="E7" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="66" t="s">
         <v>207</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>208</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A8" s="66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B8" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="D8" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="E8" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="66" t="s">
         <v>211</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>212</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A9" s="66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B9" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="D9" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="E9" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="66" t="s">
         <v>215</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>216</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B10" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="D10" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="E10" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="66" t="s">
         <v>219</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>220</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A11" s="66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B11" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="D11" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="66" t="s">
-        <v>223</v>
-      </c>
       <c r="E11" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B12" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="D12" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="E12" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="69" t="s">
         <v>227</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>228</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="69" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B13" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="69" t="s">
         <v>229</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>230</v>
       </c>
       <c r="D13" s="69"/>
       <c r="E13" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A14" s="69" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B14" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="69" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="D14" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="69" t="s">
-        <v>234</v>
-      </c>
       <c r="E14" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="69" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B15" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="D15" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="68" t="s">
-        <v>237</v>
-      </c>
       <c r="E15" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A16" s="69" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B16" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="D16" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="E16" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="69" t="s">
         <v>240</v>
-      </c>
-      <c r="E16" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="F16" s="69" t="s">
-        <v>241</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A17" s="69" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B17" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="D17" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="E17" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="69" t="s">
         <v>244</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="69" t="s">
-        <v>245</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B18" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="D18" s="69" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="E18" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="69" t="s">
         <v>248</v>
-      </c>
-      <c r="E18" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="69" t="s">
-        <v>249</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="57" x14ac:dyDescent="0.15">
       <c r="A19" s="69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B19" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" s="69" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="D19" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="E19" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="69" t="s">
+      <c r="G19" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A20" s="69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="D20" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="D20" s="69" t="s">
-        <v>258</v>
-      </c>
       <c r="E20" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A21" s="69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B21" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="69" t="s">
         <v>259</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="D21" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="D21" s="69" t="s">
-        <v>261</v>
-      </c>
       <c r="E21" s="69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A22" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B22" s="70" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="D22" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="E22" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="70" t="s">
         <v>264</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="70" t="s">
-        <v>265</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B23" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="D23" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="E23" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="70" t="s">
         <v>268</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="70" t="s">
-        <v>269</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B24" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="D24" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="E24" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="70" t="s">
         <v>272</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="70" t="s">
-        <v>273</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A25" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B25" s="70" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="71" t="s">
         <v>274</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="D25" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="E25" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="70" t="s">
         <v>276</v>
-      </c>
-      <c r="E25" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="70" t="s">
-        <v>277</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A26" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B26" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="D26" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="E26" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="70" t="s">
         <v>280</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="F26" s="70" t="s">
-        <v>281</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B27" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="D27" s="70" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="E27" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="70" t="s">
         <v>284</v>
-      </c>
-      <c r="E27" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="F27" s="70" t="s">
-        <v>285</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A28" s="70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B28" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="D28" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="E28" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="70" t="s">
         <v>288</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="70" t="s">
-        <v>289</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B29" s="70" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="71" t="s">
         <v>290</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="D29" s="70" t="s">
         <v>291</v>
       </c>
-      <c r="D29" s="70" t="s">
+      <c r="E29" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="70" t="s">
         <v>292</v>
-      </c>
-      <c r="E29" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="70" t="s">
-        <v>293</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="99.75" x14ac:dyDescent="0.3">
       <c r="A30" s="70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B30" s="70" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="D30" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="D30" s="70" t="s">
+      <c r="E30" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="70" t="s">
         <v>296</v>
-      </c>
-      <c r="E30" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="70" t="s">
-        <v>297</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A31" s="70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B31" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" s="71" t="s">
         <v>298</v>
-      </c>
-      <c r="C31" s="71" t="s">
-        <v>299</v>
       </c>
       <c r="D31" s="70"/>
       <c r="E31" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F31" s="70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A32" s="72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B32" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="D32" s="72" t="s">
         <v>301</v>
       </c>
-      <c r="D32" s="72" t="s">
+      <c r="E32" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="72" t="s">
         <v>302</v>
-      </c>
-      <c r="E32" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="F32" s="72" t="s">
-        <v>303</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B33" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="C33" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="D33" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="E33" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="72" t="s">
         <v>306</v>
-      </c>
-      <c r="E33" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="F33" s="72" t="s">
-        <v>307</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B34" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" s="72" t="s">
         <v>308</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="D34" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="E34" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="72" t="s">
         <v>310</v>
-      </c>
-      <c r="E34" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="F34" s="72" t="s">
-        <v>311</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A35" s="72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B35" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="D35" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="E35" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="72" t="s">
         <v>314</v>
-      </c>
-      <c r="E35" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="72" t="s">
-        <v>315</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A36" s="72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B36" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="D36" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="D36" s="72" t="s">
-        <v>318</v>
-      </c>
       <c r="E36" s="72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F36" s="72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B37" s="72" t="s">
+        <v>318</v>
+      </c>
+      <c r="C37" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="D37" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="D37" s="72" t="s">
-        <v>321</v>
-      </c>
       <c r="E37" s="72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F37" s="72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A38" s="72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B38" s="72" t="s">
+        <v>321</v>
+      </c>
+      <c r="C38" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="D38" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="E38" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="72" t="s">
         <v>324</v>
-      </c>
-      <c r="E38" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="F38" s="72" t="s">
-        <v>325</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A39" s="72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B39" s="72" t="s">
+        <v>325</v>
+      </c>
+      <c r="C39" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="D39" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="D39" s="72" t="s">
-        <v>328</v>
-      </c>
       <c r="E39" s="72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F39" s="72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A40" s="72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B40" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="C40" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="D40" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="E40" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="72" t="s">
         <v>331</v>
-      </c>
-      <c r="E40" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="F40" s="72" t="s">
-        <v>332</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A41" s="72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B41" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" s="72" t="s">
         <v>333</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="D41" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="E41" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" s="72" t="s">
         <v>335</v>
-      </c>
-      <c r="E41" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="F41" s="72" t="s">
-        <v>336</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="73" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B42" s="73" t="s">
+        <v>336</v>
+      </c>
+      <c r="C42" s="73" t="s">
         <v>337</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="D42" s="73" t="s">
         <v>338</v>
       </c>
-      <c r="D42" s="73" t="s">
-        <v>339</v>
-      </c>
       <c r="E42" s="73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F42" s="73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="73" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B43" s="74" t="s">
+        <v>339</v>
+      </c>
+      <c r="C43" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="D43" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="D43" s="73" t="s">
+      <c r="E43" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="73" t="s">
         <v>342</v>
-      </c>
-      <c r="E43" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="F43" s="73" t="s">
-        <v>343</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A44" s="73" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B44" s="74" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="C44" s="73" t="s">
+      <c r="D44" s="73" t="s">
         <v>345</v>
       </c>
-      <c r="D44" s="73" t="s">
-        <v>346</v>
-      </c>
       <c r="E44" s="73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F44" s="73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="71.25" x14ac:dyDescent="0.3">
       <c r="A45" s="73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B45" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="73" t="s">
         <v>347</v>
       </c>
-      <c r="C45" s="73" t="s">
+      <c r="D45" s="73" t="s">
         <v>348</v>
       </c>
-      <c r="D45" s="73" t="s">
-        <v>349</v>
-      </c>
       <c r="E45" s="73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F45" s="73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A46" s="73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" s="74" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="C46" s="73" t="s">
+      <c r="D46" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="D46" s="73" t="s">
-        <v>352</v>
-      </c>
       <c r="E46" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F46" s="73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A47" s="73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B47" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" s="73" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="D47" s="73" t="s">
         <v>354</v>
       </c>
-      <c r="D47" s="73" t="s">
+      <c r="E47" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="73" t="s">
         <v>355</v>
-      </c>
-      <c r="E47" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="F47" s="73" t="s">
-        <v>356</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A48" s="73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B48" s="73" t="s">
+        <v>356</v>
+      </c>
+      <c r="C48" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="D48" s="73" t="s">
         <v>358</v>
       </c>
-      <c r="D48" s="73" t="s">
+      <c r="E48" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="73" t="s">
         <v>359</v>
-      </c>
-      <c r="E48" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="73" t="s">
-        <v>360</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.3">
       <c r="A49" s="73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B49" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" s="73" t="s">
         <v>361</v>
       </c>
-      <c r="C49" s="73" t="s">
+      <c r="D49" s="73" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="73" t="s">
+      <c r="E49" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="73" t="s">
         <v>363</v>
-      </c>
-      <c r="E49" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="73" t="s">
-        <v>364</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A50" s="73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B50" s="74" t="s">
+        <v>364</v>
+      </c>
+      <c r="C50" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="C50" s="73" t="s">
+      <c r="D50" s="73" t="s">
         <v>366</v>
       </c>
-      <c r="D50" s="73" t="s">
-        <v>367</v>
-      </c>
       <c r="E50" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F50" s="73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A51" s="73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="C51" s="73" t="s">
         <v>368</v>
       </c>
-      <c r="C51" s="73" t="s">
+      <c r="D51" s="74" t="s">
         <v>369</v>
       </c>
-      <c r="D51" s="74" t="s">
+      <c r="E51" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="73" t="s">
         <v>370</v>
-      </c>
-      <c r="E51" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="F51" s="73" t="s">
-        <v>371</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -13508,48 +13512,48 @@
   <sheetData>
     <row r="1" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="C1" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="D1" s="64" t="s">
         <v>444</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>438</v>
-      </c>
       <c r="C2" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>446</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="65" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="65" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="65" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
